--- a/SeleniumDDT/target/test-classes/testData.xlsx
+++ b/SeleniumDDT/target/test-classes/testData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataDrivenFM\DataDrivenTesting\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharayu\DataDrivenTesting\SeleniumDDT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7253680-C920-43F7-8E6B-9D660001EB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AC913B-B91A-433C-B460-F7982E97A562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testSuite" sheetId="4" r:id="rId1"/>
     <sheet name="CustomerData" sheetId="1" r:id="rId2"/>
     <sheet name="OpenAccount" sheetId="3" r:id="rId3"/>
-    <sheet name="AccountData" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="LoginData" sheetId="5" r:id="rId4"/>
+    <sheet name="AccountData" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>last name</t>
   </si>
@@ -280,13 +281,30 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>testuser1</t>
+  </si>
+  <si>
+    <t>Pass123$</t>
+  </si>
+  <si>
+    <t>testuser2</t>
+  </si>
+  <si>
+    <t>Pass1234!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,8 +694,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="19.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="1" max="1" width="19.54296875" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -738,13 +756,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" style="9" width="10.90625" collapsed="true"/>
+    <col min="4" max="4" width="10.90625" style="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1085,9 +1103,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.26953125" collapsed="true"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1118,6 +1136,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD293C1-62A1-4E54-B4ED-1A8DD94CDB44}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1127,7 +1184,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.7265625" collapsed="true"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
